--- a/metrics/R2/average time/Ceguera.xlsx
+++ b/metrics/R2/average time/Ceguera.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8214520365454809</v>
+        <v>0.7737823496629753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8214520365454809</v>
+        <v>0.7737823496629753</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8214520365454809</v>
+        <v>0.7737823496629753</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9819509257151394</v>
+        <v>0.9796567674102125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9809304356230317</v>
+        <v>0.9785790076711507</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9819121885522653</v>
+        <v>0.9789031933020459</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9843477416933113</v>
+        <v>0.9828434918757009</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9843477416933113</v>
+        <v>0.9828434918757009</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9843477416933113</v>
+        <v>0.9828434918757009</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9568894540953035</v>
+        <v>0.955578207631393</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9590391297473838</v>
+        <v>0.9524108643884232</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9553318382952813</v>
+        <v>0.9538579173558771</v>
       </c>
     </row>
   </sheetData>
